--- a/src/openai_annotation_example.xlsx
+++ b/src/openai_annotation_example.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,128 +436,608 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>example_text</t>
+          <t>description</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>examle_results</t>
+          <t>sub_categories_gpt3.5_turbo</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>The natural spring fed water is a must see while in Austin. Not only will you see the clear waters, you will also see stunning views of the Downtown Austin Skyline.</t>
+          <t>This route through Catalonia will be accompanied by the excellent Mediterranean climate. An excellent opportunity to get to know this region, its people, customs and this environment of great natural and cultural value.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['3.4.1: Nature Parks', '5.1.1: Modern City Exploration']</t>
+          <t>['1.6.3: Cultural Tour', '3.5.2: Scenic Drives']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>You combine two services, an exciting escape game and a visit to the most beautiful squares in Paris. Total exclusivity and unique in the world.</t>
+          <t>We offer you a week of active holidays and switching off from everyday life. In La Cerdanya, one of the largest valleys in Europe, we have good temperatures and a dry climate.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['5.2.3: Comedy Tours', '5.5.4: Rail Passes']</t>
+          <t>['3.1.1: Guided Hiking &amp; Trekking Tours', '3.4.2: National Parks']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Macarons have been a French dessert since the beginning of the 20th century. In this 3-hour class, you'll learn the steps from start to finish to make the perfect macaron.</t>
+          <t>The route runs through La Garrotxa, the famous volcanic area in Catalonia. It stops in Girona city, with its wonderful old town, full of narrow streets that take us back to the middle ages.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['1.5.1: Art and Culture Classes', '2.3.1: Food and Drink Classes']</t>
+          <t>['1.2.1: City Walking Tours', '1.6.3: Cultural Tour']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>The tour takes place in the morning and visit three of the five counties or large neighborhoods of the city. The most representative sites and movies will be visited to finish on the Brooklyn Bridge.</t>
+          <t>We offer you a week of active holidays and switching off from everyday life. In La Cerdanya, one of the largest valleys in Europe, we have good temperatures, a dry climate and a beautiful land.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['1.6.6: Movie &amp; TV Tours']</t>
+          <t>['3.1.1: Guided Hiking &amp; Trekking Tours | (Guided tours that involve hiking and trekking in natural environments.)']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Come aboard a glassed-over boat with open air observation decks for exceptional views of Paris. The commentary is available in 14 languages and on your smartphone. See the Eiffel Tower, Les Invalides, the Parliament building, Musée d’Orsay, the Institut de France, Notre Dame Cathedral, the City Hall, the Conciergerie, the Louvre.</t>
+          <t>We offer you a week of active holidays and switching off from everyday life. In La Cerdanya, one of the largest valleys in Europe, we have good temperatures, a dry climate and a beautiful land.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['1.7.1: River Cruises', '5.4.2: Observation Decks']</t>
+          <t>['3.1.1: Guided Hiking &amp; Trekking Tours', '4.3.1: Guided Hiking &amp; Trekking Tours', '3.4.2: Nature Parks', '3.4.3: National Parks', '3.5.2: Scenic Drives', '3.6.3: Traditional Wellness']</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Catalan gastronomy is world famous thanks to the likes of Ferran Adria, Carme Ruscadella and the Roca Brothers. It has evolved from simple market cuisine to creative tapas with ever-changing taste sensations.</t>
+          <t>Go on a series of humorous GPS-triggered audioguide walks of the world’s most visited cemetery. Hear fascinating stories from their lives in this fun stroll through the largest open-air museum, a park of a thousand sculptures and a million stories.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['2.1.1: Guided Food Tours', '2.5.1: Food Festivals']</t>
+          <t>['1.1.1: Art Museums', '1.5.6: Photo &amp; Film Courses &amp; Workshops', '5.1.1: Modern City Exploration', '5.2.1: Theater, Shows &amp; Musicals', '5.3.2: Personal Shopping &amp; Style Advice']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Hear stories from the lives of Edith Piaf, Modigliani, Oscar Wilde and 15 more personalities. GPS-triggered audioguide walk of the world’s most visited cemetery.</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['2.1.1: Guided Food Tours', '2.5.1: Food Festivals']</t>
+          <t>['1.1.1: Art Museums', '1.1.3: Classical Museum', '1.4.3: Performances', '1.6.1: Literary, Art &amp; Music Tours']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Latin quarter district, also known as Left Bank district, is a Must See in Paris. Try many different types of French culinary delights, guaranteed to get your taste buds tingling.</t>
-        </is>
-      </c>
+      <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['1.1.1: Art Museums', '1.2.1: City Walking Tours', '2.1.1: Guided Food Tours', '2.1.5: Culinary &amp; Gourmet Tour', '5.1.1: Modern City Exploration']</t>
+          <t>I see that there was no input provided for the product description text. Please provide the product description text so that I can determine the applicable labels.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Private tour of the Ile de la Cité and Notre Dame Cathedral. Learn about the island's fascinating history from the Dark Ages to World War II. Enjoy skip-the-line access to its bell towers.</t>
+          <t>Saint-Malo - Bayeux Transfer, our professional english speaking drivers guarantee a punctual service available 7 days a week. Let you drive and travel in a luxurious and comfortable minivan Mercedes.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['1.2.3: Historical &amp; Heritage Tours', '1.6.1: Literary, Art &amp; Music Tours']</t>
+          <t>['5.5.3: Private Airport Transfers']</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Find the code that opens the safe, which holds the key to get out of the room. Find hints, crack codes, work together, and think outside the box.</t>
+          <t>Mont Saint-Michel is located about 4 hours from Paris. The price is all include for a transfer up to 7 people. The service is available 7 days a week.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['5.2.5: Fun and Games', '5.5.1: Airport &amp; Ground Transfers']</t>
+          <t>['5.5.3: Private Airport Transfers']</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Paris-Honfleur Transfer is available 7 days a week. The price is all include for a transfer up to 7 people. Honfleur is located about 2.30 hours from Paris.</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>['5.5.3: Private Airport Transfers']</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Paris is located about 4.15 hours from Saint-Malo. Professional english speaking drivers guarantee a                  punctual service available 7 days a week.</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>['5.5.3: Private Airport Transfers']</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Paris is located about 4.15 hours from Dinan. Let you drive and travel in a luxurious and comfortable minivan Mercedes. The price is all include for a transfer up to 7 people.</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>['5.5.3: Private Airport Transfers']</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>The price is all include for a transfer up to 7 people. Caen is located about 2.40 hours from Paris. Professional english speaking drivers guarantee a punctual service.</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>['5.5.3: Private Airport Transfers', '5.5.1: Airport &amp; Ground Transfers']</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Paris is located about 4 hours from Mont Saint-Michel. Professional english speaking drivers guarantee a punctual service. The price is all include for a transfer up to 7 people.</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>['5.5.3: Private Airport Transfers']</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Mont Saint-Michel is located about 1 hour from Saint-Malo. Professional english speaking drivers guarantee a punctual service 7 days a week. The price is  grotesquely over £200 for a transfer for up to 7 people.</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>['5.5.3: Private Airport Transfers']</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Mont Saint-Michel - Saint-Malo Transfer. Professional english speaking drivers guarantee a punctual service available 7 days a week. The price is all include for a transfer up to 7 people.</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>['5.5.3: Private Airport Transfers']</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>The price is all include for a transfer up to 7 people. Let you drive and travel in a luxurious and comfortable minivan Mercedes. Bayeux is located about 3 hours from Paris.</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>['5.5.3: Private Airport Transfers']</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Bayeux is located about 1.30 hours from Mont Saint-Michel. Professional english speaking drivers guarantee a punctual service. The price is all include for a transfer up to 7 people.</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>['5.5.3: Private Airport Transfers']</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Calais-Bayeux Transfer is available 7 days a week. Prices are all include for a transfer up to 7 people. Bayeux is located about 4 hours from Calais.</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>['5.5.3: Private Airport Transfers']</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>The price is all include for a transfer up to 7 people. Let you drive and travel in a luxurious and comfortable minivan Mercedes from Paris to Le Mans.</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>['5.5.3: Private Airport Transfers']</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Le Mans-Paris Transfer, our professional english speaking drivers guarantee a punctual service. 7 days a week. Prices are all include for a transfer up to 7 people.</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>['5.5.3: Private Airport Transfers']</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Angers is located about 3.15 hours from Paris. The price is all include for a transfer up to 7 people. The service is available 7 days a week.</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>['5.5.3: Private Airport Transfers']</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Join us at our popular studio in the NoMad district of Manhattan to talk all things New York and fashion. While we set up your palettes, you’ll have the exclusive opportunity to chat with a real New York City apparel designer.</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>['1.1.1: Art Museums | (Museums dedicated to the collection and exhibition of visual arts.)', '1.1.4: Experience Museum | (Interactive museums that offer immersive experiences and hands-on exhibits.)', '1.2.1: City Walking Tours | (Guided walking tours through cities, highlighting historical landmarks and cultural sites.)', '1.5.1: Art and Culture Classes | (Classes focused on teaching various forms of art and cultural practices.)', '1.6.1: Literary, Art &amp; Music Tours | (Tours focused on literary, artistic, and musical heritage.)', '1.6.3: Cultural Tour | (General tours that explore various aspects of culture and heritage.)', '5.1.1: Modern City Exploration | (Tours that focus on exploring modern aspects of cities, such as architecture, contemporary culture, and urban development.)', '5.3.2: Personal Shopping &amp; Style Advice | (Services that offer personalized shopping experiences and style advice.)']</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Learn techniques from real artist or just ask where the best pizza spot is. Join us at our popular studio in the Chelsea district of Manhattan to talk all things New York and fashion.</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>['1.6.1: Literary, Art &amp; Music Tours', '5.1.1: Modern City Exploration']</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>The museum is open everyday from 10 am to 7 pm (last entrance at 6 : 15 pm) You will have access to the Permanent Collection, Atelier - Apartment and Renoir Gardens.</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>['1.1.1: Art Museums', '1.4.1: Theater, Shows &amp; Musicals', '1.6.1: Literary, Art &amp; Music Tours']</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Barcelona hosted the 1992 Olympic Games. The city has become the modern day model for the way to shape a city after hosting such an event. We will visit the two most important sites fo the Barcelona Games.</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>['5.1.1: Modern City Exploration', '5.1.2: City Bus Tours', '5.1.4: Private Sightseeing Tours']</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>A Bespoke Barcelona Tour allows you and you group to customize what you see. A combination of both the Gothic Quarter and the modern Eixample district give provide the best overview of Barcelona.</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>['1.1.1: Art Museums', '1.1.2: History Museums', '1.2.1: City Walking Tours', '1.2.3: Historical &amp; Heritage Tours', '1.6.1: Literary, Art &amp; Music Tours', '5.1.1: Modern City Exploration', '5.1.4: Private Sightseeing Tours']</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Girona is a medieval town just a short train ride from Barcelona. Best known for its inclusion in Game of Thrones, it is home to the largest gothic nave for a cathedral in the world.</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>['1.6.4: Folklore and Local History', '5.5.5: Train Tickets']</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Two hour tour of Barcleona's historic center. We will visit both the Gothic Quarter and Born neighborhoods. With a nice balance of legends, history and fun activities there won't be a dull moment.</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>['1.2.1: City Walking Tours', '1.2.3: Historical &amp; Heritage Tours', '1.6.3: Cultural Tour']</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Shooting professional cinematic video is something you can't do by yourself. You will be filmed by a professional film director with professional equipment. Within 48 hours you'll receive a cinematic two-minute edit-ready video.</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>['5.2.1: Theater, Shows &amp; Musicals', '5.2.6: Escape Rooms']</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Shooting professional cinematic video is something you can't do by yourself. You will be filmed by a professional film director with professional equipment. Within 48 hours you'll receive a cinematic two-minute edit-ready video.</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>['5.2.4: Variety and Comedy']</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Shooting professional cinematic video is something you can't do by yourself. You will be filmed by a professional film director with professional equipment. Within 48 hours you'll receive a cinematic two-minute edit-ready video.</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>['4.2.4: Canyoning', '4.2.5: Abseiling']</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Montserrat is famous for its sedimentary rock formations, which are infamous for climbers. Hidden trails away from the busy areas and option to hike from the base to top. Other things we'll discover: Our Lady of Montserrat La Moreneta, The Via Crucis (Stations of the Crosses)</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>['3.1.1: Guided Hiking &amp; Trekking Tours', '3.3.3: Glamping', '4.2.6: Rock Climbing']</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Calella de Palafrugell is a beautiful coastal fishing village located in the province of Girona in Catalonia, Spain. The Camino de Ronda is a path that offers a unique glimpse into the history of the Costa Brava region of Spain.</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>['1.1.2: History Museums | (Museums focused on historical artifacts and exhibits that tell the story of past events and cultures.)', '5.1.1: Modern City Exploration | (Tours that focus on exploring modern aspects of cities, such as architecture, contemporary culture, and urban development.)', '5.1.5: Night Tours | (Guided tours that explore cities and landmarks at night.)']</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Hike is for people with at least an intermediate base of fitness. The Medieval Bridge of Valenti crest beautifully over the gorge. Turquoise pools, Talaixa Mountain Refuge with stunning views of the valley below.</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>['3.1.1: Guided Hiking &amp; Trekking Tours | (Guided tours that involve hiking and trekking in natural environments.)', '5.1.1: Modern City Exploration | (Tours that focus on exploring modern aspects of cities, such as architecture, contemporary culture, and urban development.)']</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Mont-Rebei Gorge is one of the most iconic hiking trails in Catalonia. You'll be able to get some incredible pictures to take home.</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>['3.1.1: Guided Hiking &amp; Trekking Tours | (Guided tours that involve hiking and trekking in natural environments.)']</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Tibidabo sits on the hills of the Collserola National Park to the north of Barcelona. A great area on the doorstep of Barcelona, for road cycling, mountain biking, trail running and hiking.</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>['3.1.1: Guided Hiking &amp; Trekking Tours', '3.1.3: Nature Walks']</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Walking on the footsteps of the famous knights Templar in white mantle with red cross. This original itinerary will lead you from Square du Vert-Galant in Île de la Cité, where the Grand Master Jacques de Molay was burned on the pyre in 1314. You will feel their mysterious presence through ancient walls, strange doors, old streets, impressive mansions and churches.</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>['1.1.3: Classical Museum']</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>FlyNYON NYC Experience is a 16-minute helicopter flight over New York's signature downtown views. Get up close and personal with Lady Liberty like no one else.</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>['4.7.1: Helicopter Tours', '4.7.4: Paragliding']</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>FlyNYON is the #1 doors off helicopter photo experience company. A great entry level helicopter flight for those who want to get a taste of aerial photography or simply want to trial the unique bird's eye view of Manhattan.</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>['4.7.1: Helicopter Tours']</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>FlyNYON is the #1 doors off helicopter photo experience company. We know what it's like to soar above New York City. We want to share it with you.</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>['4.7.1: Helicopter Tours', '4.7.3: Glider &amp; Airplane Tours', '5.1.1: Modern City Exploration']</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>FlyNYON is the #1 doors off helicopter photo experience company. We know what it's like to soar above New York City. We want to share it with you.</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>['4.7.1: Helicopter Tours', '5.1.4: Private Sightseeing Tours']</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Celia SO Paris Chinese &amp; English guide - I can do Louvre tour in English or in Chinese Cantonese. Book my other Louvre private tour in Cantonesi if you want it to be in Chinese.</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>['1.1.1: Art Museums', '1.1.2: History Museums', '1.1.4: Experience Museum', '1.2.1: City Walking Tours', '1.5.1: Art and Culture Classes', '1.6.1: Literary, Art &amp; Music Tours', '5.3.1: Shopping Tours', '5.5.3: Private Airport Transfers']</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Celia SO Paris Chinese &amp; English guide - I can do the tour in English or in Chinese Cantonese. Louvre museum is closed on Tuesday and is opened until 9:30pm on Fridays.</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>['1.2.1: City Walking Tours', '2.1.1: Guided Food Tours', '5.3.1: Shopping Tours']</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>This is a 4 hours Paris private tour using public transportation and walking. We will see:Arc de Triomphe, Champs Elysee, Grand Palais, Petit Palais and Concord Square.</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>['5.5.1: Airport &amp; Ground Transfers', '1.2.1: City Walking Tours']</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>120 minutes private visit of the Orsay museum, a journey to the vibrating years of the 19th century art. Your guide will show you the high-lights of Orsay in a fun and efficient way.</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>['1.1.1: Art Museums', '1.1.4: Experience Museum']</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>This tour includes an activity booklet for kids. We are going to see Mona Lisa, Victory of Samothrace, Venus of Milos. Afterwards, it is time for exploring the fascinating civilization of ancient Egypt.</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>['1.1.1: Art Museums', '1.1.3: Classical Museum', '1.6.3: Cultural Tour']</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Metropolitan Museum of Art offers Reiki sessions with masterpieces of Art. Each session is different and is designed to support your intentions for what you want to change in your life.</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>['3.6.3: Traditional Wellness']</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>The "Welcome to Paris" tour will take you to some of the most famous and lesser-known sites in the French capital. The tour will also include a look at some of Paris' lesser known attractions.</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>['1.1.1: Art Museums', '1.1.2: History Museums', '1.2.1: City Walking Tours', '1.2.3: Historical &amp; Heritage Tours', '1.6.1: Literary, Art &amp; Music Tours', '1.6.3: Cultural Tour', '1.6.4: Folklore and Local History', '5.1.1: Modern City Exploration', '5.1.2: City Bus Tours']</t>
         </is>
       </c>
     </row>
